--- a/data/trans_dic/P34B04_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P34B04_R-Dificultad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.04892647302719513</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05590740984151824</v>
+        <v>0.05590740984151823</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.00273651903069861</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03595944369584604</v>
+        <v>0.03674838421547141</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03807890836518467</v>
+        <v>0.03532583717967201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03366086476707537</v>
+        <v>0.03394390312767743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0008605545686544103</v>
+        <v>0.0008574669284005882</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004621185284853196</v>
+        <v>0.004948720713227073</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.005229537289321721</v>
+        <v>0.005056780536552035</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01817496317257382</v>
+        <v>0.01844760151276516</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02121051310489337</v>
+        <v>0.02124435181994442</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01940303229158251</v>
+        <v>0.02041689527528771</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06102808728548605</v>
+        <v>0.06374079255928079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06549114598592898</v>
+        <v>0.06282880871499091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09019398789241873</v>
+        <v>0.09530694528821027</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.007678670037109168</v>
+        <v>0.007154031286970868</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01508515503189511</v>
+        <v>0.01535693275433652</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02237989924929056</v>
+        <v>0.02283084956952026</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03198011366469553</v>
+        <v>0.0315936377009407</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03475172606475237</v>
+        <v>0.03472972439935929</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04522857480920189</v>
+        <v>0.05073241845206137</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.04360348276764402</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.0470333917101762</v>
+        <v>0.04703339171017619</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06149296236668875</v>
+        <v>0.05957539041037683</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05633287300915585</v>
+        <v>0.05818264072351942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06526403002319056</v>
+        <v>0.06449131390397404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003534259621326069</v>
+        <v>0.003449915389719168</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01068465124595716</v>
+        <v>0.01142221822036547</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.007913405455850599</v>
+        <v>0.008295472120450158</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03223071562145572</v>
+        <v>0.03201167042798083</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03492264443878308</v>
+        <v>0.03447584824732637</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0370934387153829</v>
+        <v>0.03646510535386824</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09872643510083284</v>
+        <v>0.09498956408021898</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08969077673993824</v>
+        <v>0.09142276479853512</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1117030848026129</v>
+        <v>0.1127371824650698</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01688055981064442</v>
+        <v>0.01580154901232144</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02704748337842599</v>
+        <v>0.02721873466343329</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0235392487256483</v>
+        <v>0.02322511876603905</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04947489229000453</v>
+        <v>0.04994658473067504</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05345293401597331</v>
+        <v>0.05270755778010325</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05930393087075786</v>
+        <v>0.06003149213412101</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.03569450705691111</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.0564000401474728</v>
+        <v>0.05640004014747281</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06936329113072159</v>
+        <v>0.06845305024220344</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04466479157144521</v>
+        <v>0.04522280945261152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07890456079476503</v>
+        <v>0.07455514092935861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003316479023294578</v>
+        <v>0.003277066055713762</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003636765356757466</v>
+        <v>0.003942903366851674</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008034266236769817</v>
+        <v>0.007609238696089174</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03864791412992113</v>
+        <v>0.03822786348873855</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02688193464176904</v>
+        <v>0.02734875132274266</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0453901899916346</v>
+        <v>0.04515237276988817</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1083584938311319</v>
+        <v>0.1088070893672477</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08081240897731171</v>
+        <v>0.08035074767295819</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.126363348925369</v>
+        <v>0.1248160415218758</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01621543215876564</v>
+        <v>0.01521550204713173</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01761627198195058</v>
+        <v>0.01770967261608979</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02582968857326971</v>
+        <v>0.02470805073555532</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05865954670811351</v>
+        <v>0.05917919995046546</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04676457908939757</v>
+        <v>0.0472963701349395</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07149469680478823</v>
+        <v>0.07083470105481861</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07657230456757896</v>
+        <v>0.07761455897903</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06393181750211495</v>
+        <v>0.06219473123283344</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07774577575402249</v>
+        <v>0.08108072101451558</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009077534060904344</v>
+        <v>0.009993836081586533</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008036884054931312</v>
+        <v>0.008496862391367816</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0230691536033756</v>
+        <v>0.02338471195947864</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04867275110986716</v>
+        <v>0.04914384689873243</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03892246090937462</v>
+        <v>0.039408274737274</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05522499100208975</v>
+        <v>0.05656192871198529</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1348651077298185</v>
+        <v>0.1316630283159032</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.117077035138033</v>
+        <v>0.114879148175679</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1287246286493897</v>
+        <v>0.1282631154579573</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03985190491523085</v>
+        <v>0.04112960505167679</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03469367286706955</v>
+        <v>0.03283627243720306</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04735907914670693</v>
+        <v>0.04694374967559287</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0810800189584879</v>
+        <v>0.08323204178099371</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06820950728434198</v>
+        <v>0.06888797321570868</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08527127759224794</v>
+        <v>0.0843536861224831</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.01271515223324863</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.01840529000155093</v>
+        <v>0.01840529000155092</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.04041360638849059</v>
@@ -1100,7 +1100,7 @@
         <v>0.03761201003511355</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.05309890548593137</v>
+        <v>0.05309890548593136</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06501562899291759</v>
+        <v>0.06576245953252086</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05534010050426441</v>
+        <v>0.05519946707048254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07795500316244915</v>
+        <v>0.07824953585788037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005095828766244318</v>
+        <v>0.005121908781751869</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.009114586038234562</v>
+        <v>0.00940796006096206</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01468426700698673</v>
+        <v>0.0144464612734866</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0355924020904933</v>
+        <v>0.03564303735562045</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03318028175154501</v>
+        <v>0.03306040468151637</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04695715788870208</v>
+        <v>0.04714334895448111</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08492388545146584</v>
+        <v>0.08399064258747194</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07237854372988624</v>
+        <v>0.07234540237397391</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1034640275220139</v>
+        <v>0.1044544986987161</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0117479977677547</v>
+        <v>0.01170090188437193</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01688471860604638</v>
+        <v>0.01676027026705676</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02363734069125241</v>
+        <v>0.02332972298660679</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04557496351149144</v>
+        <v>0.04631508301729659</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04264888934671763</v>
+        <v>0.04223427725506172</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06035910920926658</v>
+        <v>0.06007034942320828</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37539</v>
+        <v>38363</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>42953</v>
+        <v>39847</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16788</v>
+        <v>16929</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5821</v>
+        <v>6233</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3257</v>
+        <v>3150</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>39294</v>
+        <v>39883</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>50641</v>
+        <v>50722</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21763</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>63709</v>
+        <v>66541</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>73874</v>
+        <v>70871</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44983</v>
+        <v>47533</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8585</v>
+        <v>7998</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19001</v>
+        <v>19343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13940</v>
+        <v>14221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>69140</v>
+        <v>68304</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>82972</v>
+        <v>82919</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>50729</v>
+        <v>56902</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>60083</v>
+        <v>58210</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>51197</v>
+        <v>52878</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>62662</v>
+        <v>61920</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3867</v>
+        <v>3775</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10754</v>
+        <v>11496</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8830</v>
+        <v>9256</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66761</v>
+        <v>66307</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>66887</v>
+        <v>66032</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>77005</v>
+        <v>75701</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>96463</v>
+        <v>92812</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>81513</v>
+        <v>83087</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>107250</v>
+        <v>108243</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18472</v>
+        <v>17291</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27223</v>
+        <v>27395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26266</v>
+        <v>25916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>102479</v>
+        <v>103456</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>102378</v>
+        <v>100951</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>123114</v>
+        <v>124625</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>61251</v>
+        <v>60447</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36793</v>
+        <v>37253</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>82572</v>
+        <v>78020</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2905</v>
+        <v>2870</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2804</v>
+        <v>3040</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8412</v>
+        <v>7967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>67976</v>
+        <v>67237</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42872</v>
+        <v>43616</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>95024</v>
+        <v>94527</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>95686</v>
+        <v>96082</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66570</v>
+        <v>66190</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>132237</v>
+        <v>130617</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14201</v>
+        <v>13326</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13583</v>
+        <v>13655</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27044</v>
+        <v>25870</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>103173</v>
+        <v>104087</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>74581</v>
+        <v>75429</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>149674</v>
+        <v>148293</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38518</v>
+        <v>39042</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32394</v>
+        <v>31514</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>75874</v>
+        <v>79129</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4110</v>
+        <v>4525</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3936</v>
+        <v>4161</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20875</v>
+        <v>21160</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>46519</v>
+        <v>46970</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>38782</v>
+        <v>39266</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>103867</v>
+        <v>106382</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>67840</v>
+        <v>66230</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>59323</v>
+        <v>58209</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>125626</v>
+        <v>125176</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18042</v>
+        <v>18621</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16989</v>
+        <v>16080</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42854</v>
+        <v>42478</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>77493</v>
+        <v>79550</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>67964</v>
+        <v>68640</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>160378</v>
+        <v>158652</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>221513</v>
+        <v>224058</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>186346</v>
+        <v>185872</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>271384</v>
+        <v>272409</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18043</v>
+        <v>18136</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>32145</v>
+        <v>33180</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>54194</v>
+        <v>53316</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>247293</v>
+        <v>247644</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>228747</v>
+        <v>227921</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>336772</v>
+        <v>338107</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>289342</v>
+        <v>286163</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>243719</v>
+        <v>243607</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>360188</v>
+        <v>363636</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>41598</v>
+        <v>41431</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>59549</v>
+        <v>59110</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>87236</v>
+        <v>86101</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>316651</v>
+        <v>321793</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>294025</v>
+        <v>291166</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>432889</v>
+        <v>430818</v>
       </c>
     </row>
     <row r="24">
